--- a/config/cfg_ufd/ufd_partial_derivertive_1580.xlsx
+++ b/config/cfg_ufd/ufd_partial_derivertive_1580.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\板形计算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\config\cfg_ufd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="20670" windowHeight="10065"/>
+    <workbookView xWindow="1859" yWindow="0" windowWidth="20665" windowHeight="10069"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>dp_dbnd_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>dp_dbnd_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +51,10 @@
   </si>
   <si>
     <t>dp_dwrbr_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_dbnd_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,53 +392,53 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -446,22 +446,22 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -478,22 +478,22 @@
         <v>440</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -510,22 +510,22 @@
         <v>480</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -542,22 +542,22 @@
         <v>520</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -574,22 +574,22 @@
         <v>560</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -606,22 +606,22 @@
         <v>600</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -638,22 +638,22 @@
         <v>640</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -670,22 +670,22 @@
         <v>680</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -702,22 +702,22 @@
         <v>720</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -734,22 +734,22 @@
         <v>760</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -766,31 +766,31 @@
         <v>800</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -798,31 +798,31 @@
         <v>840</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -830,31 +830,31 @@
         <v>880</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I14">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -862,31 +862,31 @@
         <v>920</v>
       </c>
       <c r="C15">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="D15">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="E15">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F15">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H15">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I15">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -894,31 +894,31 @@
         <v>960</v>
       </c>
       <c r="C16">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="D16">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="E16">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F16">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H16">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I16">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -926,31 +926,31 @@
         <v>1000</v>
       </c>
       <c r="C17">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="D17">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="E17">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F17">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="H17">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -958,31 +958,31 @@
         <v>1040</v>
       </c>
       <c r="C18">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="D18">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="E18">
-        <v>1.1200000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F18">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="H18">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I18">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -990,31 +990,31 @@
         <v>1080</v>
       </c>
       <c r="C19">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="D19">
-        <v>1.37</v>
+        <v>0.75</v>
       </c>
       <c r="E19">
-        <v>1.1299999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F19">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="H19">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I19">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1022,31 +1022,31 @@
         <v>1120</v>
       </c>
       <c r="C20">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
-        <v>1.36</v>
+        <v>0.75</v>
       </c>
       <c r="E20">
-        <v>1.1399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F20">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="H20">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1054,31 +1054,31 @@
         <v>1160</v>
       </c>
       <c r="C21">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="D21">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="E21">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="H21">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I21">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1086,31 +1086,31 @@
         <v>1200</v>
       </c>
       <c r="C22">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="D22">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="E22">
-        <v>1.1599999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F22">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="H22">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I22">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1118,31 +1118,31 @@
         <v>1240</v>
       </c>
       <c r="C23">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="D23">
-        <v>1.26</v>
+        <v>0.75</v>
       </c>
       <c r="E23">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F23">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="H23">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1150,31 +1150,31 @@
         <v>1280</v>
       </c>
       <c r="C24">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="D24">
-        <v>1.24</v>
+        <v>0.75</v>
       </c>
       <c r="E24">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="F24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H24">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I24">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1182,31 +1182,31 @@
         <v>1320</v>
       </c>
       <c r="C25">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="D25">
-        <v>1.23</v>
+        <v>0.75</v>
       </c>
       <c r="E25">
         <v>1.2</v>
       </c>
       <c r="F25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="H25">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1214,31 +1214,31 @@
         <v>1360</v>
       </c>
       <c r="C26">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="D26">
-        <v>1.22</v>
+        <v>0.75</v>
       </c>
       <c r="E26">
         <v>1.2</v>
       </c>
       <c r="F26">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="H26">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I26">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1246,31 +1246,31 @@
         <v>1400</v>
       </c>
       <c r="C27">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="D27">
-        <v>1.21</v>
+        <v>0.75</v>
       </c>
       <c r="E27">
         <v>1.2</v>
       </c>
       <c r="F27">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="H27">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I27">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1278,31 +1278,31 @@
         <v>1450</v>
       </c>
       <c r="C28">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="D28">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="E28">
         <v>1.2</v>
       </c>
       <c r="F28">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="H28">
-        <v>1.33</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I28">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1310,31 +1310,31 @@
         <v>1500</v>
       </c>
       <c r="C29">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="D29">
-        <v>1.1499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E29">
         <v>1.2</v>
       </c>
       <c r="F29">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="H29">
-        <v>1.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I29">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1342,31 +1342,31 @@
         <v>1550</v>
       </c>
       <c r="C30">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="D30">
-        <v>1.1299999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E30">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="F30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1.1499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H30">
-        <v>1.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I30">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1374,31 +1374,31 @@
         <v>1600</v>
       </c>
       <c r="C31">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="D31">
-        <v>1.1200000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E31">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="F31">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1.1299999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H31">
-        <v>1.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I31">
-        <v>1.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1406,31 +1406,31 @@
         <v>1650</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D32">
-        <v>1.1000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E32">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F32">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H32">
-        <v>1.35</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I32">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1441,28 +1441,28 @@
         <v>0.75</v>
       </c>
       <c r="D33">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="E33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="F33">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H33">
-        <v>1.36</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I33">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1470,31 +1470,31 @@
         <v>2000</v>
       </c>
       <c r="C34">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="D34">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="E34">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="F34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="H34">
-        <v>1.37</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I34">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1502,28 +1502,28 @@
         <v>2200</v>
       </c>
       <c r="C35">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E35">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="H35">
-        <v>1.38</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I35">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1.38</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
